--- a/dictionaries.xlsx
+++ b/dictionaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Python\rimworld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ace\Google Drive\Python\rimworld_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5496CE-C135-47A4-BE0C-17285535AD23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B322FFC3-1266-4296-9E1F-FE06FF9CD6D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5970" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{29AF10F4-F3D8-45C5-8115-94DCBD391B68}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{29AF10F4-F3D8-45C5-8115-94DCBD391B68}"/>
   </bookViews>
   <sheets>
     <sheet name="General traits" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
   <si>
     <t>Trait</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>bad</t>
+  </si>
+  <si>
+    <t>supercategory_theme</t>
+  </si>
+  <si>
+    <t>Extravert</t>
+  </si>
+  <si>
+    <t>Introvert</t>
+  </si>
+  <si>
+    <t>Amiable</t>
+  </si>
+  <si>
+    <t>Jumps the gun</t>
   </si>
 </sst>
 </file>
@@ -536,12 +551,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,17 +564,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -571,21 +586,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE69E28-EC08-48F7-BBDC-65146E1C868D}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" customWidth="1"/>
+    <col min="2" max="2" width="15.578125" customWidth="1"/>
+    <col min="3" max="3" width="17.578125" customWidth="1"/>
+    <col min="4" max="4" width="15.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -598,8 +613,11 @@
       <c r="D1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -612,8 +630,11 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -626,8 +647,11 @@
       <c r="D3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -640,8 +664,11 @@
       <c r="D4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -654,8 +681,11 @@
       <c r="D5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -668,8 +698,11 @@
       <c r="D6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -683,7 +716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -697,7 +730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -711,7 +744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -725,7 +758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -739,7 +772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -753,7 +786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -767,7 +800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -781,7 +814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -795,7 +828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -809,7 +842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -823,7 +856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -837,7 +870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -851,7 +884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -865,7 +898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -879,7 +912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -893,7 +926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -907,7 +940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -921,7 +954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -935,7 +968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -949,7 +982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -963,7 +996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -977,7 +1010,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -991,7 +1024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1005,7 +1038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1019,7 +1052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1033,7 +1066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1047,7 +1080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1061,7 +1094,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1075,7 +1108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1089,7 +1122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1103,7 +1136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>41</v>
       </c>
